--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_1</t>
+          <t>model_12_7_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9647538920000406</v>
+        <v>0.9377648996678674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7771937120152492</v>
+        <v>0.6725246622806573</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8983030795116108</v>
+        <v>0.9663592637863028</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8007667427225541</v>
+        <v>0.2820793078626369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8753016228964388</v>
+        <v>0.9160654711813596</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2356908864891332</v>
+        <v>0.4161664024872583</v>
       </c>
       <c r="H2" t="n">
-        <v>1.489906673682651</v>
+        <v>2.189829091214524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5659001641880876</v>
+        <v>0.4876731704370978</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4787081240743096</v>
+        <v>0.8292701614815353</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5223040757299704</v>
+        <v>0.6584716659593166</v>
       </c>
       <c r="L2" t="n">
-        <v>2.51432174985207</v>
+        <v>1.473696299989676</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4854800577666741</v>
+        <v>0.6451096050186033</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018797924266645</v>
+        <v>1.033192053510471</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5061479489080642</v>
+        <v>0.6725732564652249</v>
       </c>
       <c r="P2" t="n">
-        <v>140.8904682710208</v>
+        <v>139.7533401854459</v>
       </c>
       <c r="Q2" t="n">
-        <v>224.9929001869266</v>
+        <v>223.8557721013517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_0</t>
+          <t>model_12_7_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9654667536325199</v>
+        <v>0.9356415224691609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7770477932478693</v>
+        <v>0.6722466226857361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9156759734125866</v>
+        <v>0.9751472446904458</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8146376657801692</v>
+        <v>0.3564950431320318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8908202813748969</v>
+        <v>0.9296633529481936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2309239774703184</v>
+        <v>0.4303654355922616</v>
       </c>
       <c r="H3" t="n">
-        <v>1.490882433152014</v>
+        <v>2.191688343266017</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4692273892036487</v>
+        <v>0.3602781431095114</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4453797347941847</v>
+        <v>0.7433125487821497</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4573035619989167</v>
+        <v>0.5517954269126694</v>
       </c>
       <c r="L3" t="n">
-        <v>2.71243708277997</v>
+        <v>1.503943936002153</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4805454998960227</v>
+        <v>0.6560224352811889</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018417731395989</v>
+        <v>1.034324521349781</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5010033166929163</v>
+        <v>0.6839506685047617</v>
       </c>
       <c r="P3" t="n">
-        <v>140.9313334489727</v>
+        <v>139.6862411619964</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.0337653648785</v>
+        <v>223.7886730779022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_2</t>
+          <t>model_12_7_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9635768181898764</v>
+        <v>0.9385102870733968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7768144991761674</v>
+        <v>0.6717552956536421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8809901941782505</v>
+        <v>0.9572053659338317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7865744215951531</v>
+        <v>0.2123407172944796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.859730608304334</v>
+        <v>0.9024738283756415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2435619844776276</v>
+        <v>0.4111819934742892</v>
       </c>
       <c r="H4" t="n">
-        <v>1.492442471683705</v>
+        <v>2.194973849391983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6622390169838979</v>
+        <v>0.6203727153939751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5128087532363237</v>
+        <v>0.9098252045320081</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5875238851101108</v>
+        <v>0.7650989599629916</v>
       </c>
       <c r="L4" t="n">
-        <v>2.337081565270719</v>
+        <v>1.445600494331248</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4935199939998658</v>
+        <v>0.6412347413188786</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019425696965399</v>
+        <v>1.032794513560855</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5145301618716654</v>
+        <v>0.6685334317957294</v>
       </c>
       <c r="P4" t="n">
-        <v>140.8247676249543</v>
+        <v>139.777438711978</v>
       </c>
       <c r="Q4" t="n">
-        <v>224.9271995408602</v>
+        <v>223.8798706278838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_3</t>
+          <t>model_12_7_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9620787903952238</v>
+        <v>0.9316851595128413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.776051547825189</v>
+        <v>0.6705587407460289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8640325851975184</v>
+        <v>0.9832611425382514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7723800625229315</v>
+        <v>0.4349369531567302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8443950220906622</v>
+        <v>0.942934858009167</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2535793032382532</v>
+        <v>0.4568216528985468</v>
       </c>
       <c r="H5" t="n">
-        <v>1.497544330880765</v>
+        <v>2.20297521756882</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7566009077899161</v>
+        <v>0.2426549655753947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5469142790745021</v>
+        <v>0.6527043017911918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6517575934322091</v>
+        <v>0.4476796336832933</v>
       </c>
       <c r="L5" t="n">
-        <v>2.178380538367203</v>
+        <v>1.536359679653966</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5035665827259124</v>
+        <v>0.6758858283013092</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020224645122547</v>
+        <v>1.036434581593151</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5250044546790855</v>
+        <v>0.7046596872886406</v>
       </c>
       <c r="P5" t="n">
-        <v>140.7441573431721</v>
+        <v>139.5669244409944</v>
       </c>
       <c r="Q5" t="n">
-        <v>224.8465892590779</v>
+        <v>223.6693563569003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_4</t>
+          <t>model_12_7_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9603730835655352</v>
+        <v>0.9382350694969037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7750186745046623</v>
+        <v>0.6702255490154887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8476513956685808</v>
+        <v>0.9479292294926125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7584307323250725</v>
+        <v>0.1475539614246346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8295125019165235</v>
+        <v>0.8891337980483545</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2649853726624387</v>
+        <v>0.4130223746755592</v>
       </c>
       <c r="H6" t="n">
-        <v>1.504451159531071</v>
+        <v>2.20520327220515</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8477552691953855</v>
+        <v>0.7548442929171381</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5804310612742283</v>
+        <v>0.984660383529428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7140936167601672</v>
+        <v>0.869752338223283</v>
       </c>
       <c r="L6" t="n">
-        <v>2.036157845826499</v>
+        <v>1.419677936156903</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5147672995271151</v>
+        <v>0.6426681684007379</v>
       </c>
       <c r="N6" t="n">
-        <v>1.021134355431714</v>
+        <v>1.032941296268318</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5366820091831955</v>
+        <v>0.6700278828360666</v>
       </c>
       <c r="P6" t="n">
-        <v>140.6561613040392</v>
+        <v>139.7685070230374</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.758593219945</v>
+        <v>223.8709389389432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_5</t>
+          <t>model_12_7_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9585479621702535</v>
+        <v>0.9372196380114679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7738059537447681</v>
+        <v>0.6681619527338649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8320042365149984</v>
+        <v>0.9387214812874027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7449158254999265</v>
+        <v>0.08774748035385371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8152423891256182</v>
+        <v>0.8762236155587344</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2771899678365984</v>
+        <v>0.4198125696943003</v>
       </c>
       <c r="H7" t="n">
-        <v>1.512560628836549</v>
+        <v>2.219002550042356</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9348250633599036</v>
+        <v>0.8883244798933313</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6129040318099418</v>
+        <v>1.053742847314605</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7738645475849227</v>
+        <v>0.9710335331192149</v>
       </c>
       <c r="L7" t="n">
-        <v>1.908610283875737</v>
+        <v>1.396156007355098</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5264883358979555</v>
+        <v>0.6479294480838946</v>
       </c>
       <c r="N7" t="n">
-        <v>1.022107753509198</v>
+        <v>1.033482859727217</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5489020343382327</v>
+        <v>0.6755131460876856</v>
       </c>
       <c r="P7" t="n">
-        <v>140.5661044067739</v>
+        <v>139.7358938598843</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.6685363226798</v>
+        <v>223.8383257757901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_6</t>
+          <t>model_12_7_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9566705621518523</v>
+        <v>0.9253165554267782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7724836397352857</v>
+        <v>0.6670031180984861</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8171947668391497</v>
+        <v>0.9903155880168755</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7319661647912068</v>
+        <v>0.5162016867632061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.80169066978101</v>
+        <v>0.9554353145563971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2897441504042796</v>
+        <v>0.4994085377467765</v>
       </c>
       <c r="H8" t="n">
-        <v>1.521402948706655</v>
+        <v>2.226751682585076</v>
       </c>
       <c r="I8" t="n">
-        <v>1.01723347141055</v>
+        <v>0.1403901468038142</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6440188560615843</v>
+        <v>0.5588354113989058</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8306264590968839</v>
+        <v>0.3496127646157129</v>
       </c>
       <c r="L8" t="n">
-        <v>1.794158981101932</v>
+        <v>1.570939211084413</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5382788779102144</v>
+        <v>0.7066884304605365</v>
       </c>
       <c r="N8" t="n">
-        <v>1.023109033519012</v>
+        <v>1.039831170439052</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5611945241337403</v>
+        <v>0.7367736199919629</v>
       </c>
       <c r="P8" t="n">
-        <v>140.4775139707792</v>
+        <v>139.3886616105477</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.579945886685</v>
+        <v>223.4910935264535</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.954791403091465</v>
+        <v>0.9356828499692538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7711058194206363</v>
+        <v>0.6657423376440919</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8032825118101734</v>
+        <v>0.9297265440182776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7196754218394767</v>
+        <v>0.03279500344505704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7889241784305718</v>
+        <v>0.8638673582718953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3023100956938212</v>
+        <v>0.4300890784088447</v>
       </c>
       <c r="H9" t="n">
-        <v>1.530616439494995</v>
+        <v>2.235182527288971</v>
       </c>
       <c r="I9" t="n">
-        <v>1.094649261065883</v>
+        <v>1.018719651629528</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6735504642996045</v>
+        <v>1.117218451095153</v>
       </c>
       <c r="K9" t="n">
-        <v>0.884099412153583</v>
+        <v>1.06796914990533</v>
       </c>
       <c r="L9" t="n">
-        <v>1.691392983067801</v>
+        <v>1.374482335073</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5498273326179967</v>
+        <v>0.6558117705628992</v>
       </c>
       <c r="N9" t="n">
-        <v>1.024111251684552</v>
+        <v>1.034302480016398</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5732346204670297</v>
+        <v>0.6837310353532784</v>
       </c>
       <c r="P9" t="n">
-        <v>140.3926039629595</v>
+        <v>139.6875258653174</v>
       </c>
       <c r="Q9" t="n">
-        <v>224.4950358788653</v>
+        <v>223.7899577812232</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.95294731469437</v>
+        <v>0.9337944418357792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7697133846623246</v>
+        <v>0.6631047899054523</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7902944782616648</v>
+        <v>0.921050722932204</v>
       </c>
       <c r="E10" t="n">
-        <v>0.708097623523915</v>
+        <v>-0.01753054152466915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7769757055239543</v>
+        <v>0.8521466371852758</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3146415232964422</v>
+        <v>0.4427168722927092</v>
       </c>
       <c r="H10" t="n">
-        <v>1.539927657135397</v>
+        <v>2.252819821162044</v>
       </c>
       <c r="I10" t="n">
-        <v>1.166922150768778</v>
+        <v>1.144488753361249</v>
       </c>
       <c r="J10" t="n">
-        <v>0.701369043327478</v>
+        <v>1.175349485986269</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9341460626620539</v>
+        <v>1.159918945165715</v>
       </c>
       <c r="L10" t="n">
-        <v>1.599079818366114</v>
+        <v>1.354579825847995</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5609291606757865</v>
+        <v>0.6653697260115681</v>
       </c>
       <c r="N10" t="n">
-        <v>1.025094765496336</v>
+        <v>1.035309631020918</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5848090763291918</v>
+        <v>0.6936958927530924</v>
       </c>
       <c r="P10" t="n">
-        <v>140.3126426189511</v>
+        <v>139.6296496554423</v>
       </c>
       <c r="Q10" t="n">
-        <v>224.415074534857</v>
+        <v>223.7320815713481</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9511644099069185</v>
+        <v>0.9316853593425113</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7683365449044686</v>
+        <v>0.6603555199733113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7782304908397992</v>
+        <v>0.9127688610771113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6972625149228855</v>
+        <v>-0.0634992395595404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7658542784730393</v>
+        <v>0.8411106025263473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3265638158196513</v>
+        <v>0.4568203166366234</v>
       </c>
       <c r="H11" t="n">
-        <v>1.549134590935945</v>
+        <v>2.271204201857495</v>
       </c>
       <c r="I11" t="n">
-        <v>1.234053116288783</v>
+        <v>1.264546822314885</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7274031230961844</v>
+        <v>1.228447927165034</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9807285989512176</v>
+        <v>1.246497332269683</v>
       </c>
       <c r="L11" t="n">
-        <v>1.516129333960327</v>
+        <v>1.336353156095417</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5714576238179444</v>
+        <v>0.6758848397742202</v>
       </c>
       <c r="N11" t="n">
-        <v>1.026045648049643</v>
+        <v>1.036434475017327</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5957857579442347</v>
+        <v>0.7046586566779069</v>
       </c>
       <c r="P11" t="n">
-        <v>140.2382597901857</v>
+        <v>139.5669302912595</v>
       </c>
       <c r="Q11" t="n">
-        <v>224.3406917060915</v>
+        <v>223.6693622071653</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9494605932609205</v>
+        <v>0.929455175498155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7669972503908167</v>
+        <v>0.6575750631781418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7670732767476321</v>
+        <v>0.9049296558817523</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6871763241550886</v>
+        <v>-0.1054089919429415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7555502295687889</v>
+        <v>0.8307823731220272</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3379572455767949</v>
+        <v>0.4717335662728862</v>
       </c>
       <c r="H12" t="n">
-        <v>1.55809045951562</v>
+        <v>2.28979712924962</v>
       </c>
       <c r="I12" t="n">
-        <v>1.296138273403839</v>
+        <v>1.378187915870119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.751637738980539</v>
+        <v>1.276857880391433</v>
       </c>
       <c r="K12" t="n">
-        <v>1.023887514602071</v>
+        <v>1.327522942563719</v>
       </c>
       <c r="L12" t="n">
-        <v>1.441567002284558</v>
+        <v>1.319705047118511</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5813409030653141</v>
+        <v>0.6868286294796441</v>
       </c>
       <c r="N12" t="n">
-        <v>1.026954350260842</v>
+        <v>1.037623906400984</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6060897888503732</v>
+        <v>0.7160683461678584</v>
       </c>
       <c r="P12" t="n">
-        <v>140.1696717677526</v>
+        <v>139.5026818620196</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.2721036836584</v>
+        <v>223.6051137779255</v>
       </c>
     </row>
     <row r="13">
@@ -1127,767 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9478472634389508</v>
+        <v>0.9271789821584578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7657107068873055</v>
+        <v>0.6548234894708913</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7567919146544871</v>
+        <v>0.8975614145189355</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6778298162214536</v>
+        <v>-0.1435615355154694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7460398232131333</v>
+        <v>0.8211658940586521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.348745589525007</v>
+        <v>0.4869544816163479</v>
       </c>
       <c r="H13" t="n">
-        <v>1.566693581847587</v>
+        <v>2.308196915299836</v>
       </c>
       <c r="I13" t="n">
-        <v>1.353349686184545</v>
+        <v>1.485001678896138</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7740950803938023</v>
+        <v>1.32092788187743</v>
       </c>
       <c r="K13" t="n">
-        <v>1.063722227104238</v>
+        <v>1.402964826596994</v>
       </c>
       <c r="L13" t="n">
-        <v>1.374526524575946</v>
+        <v>1.304533722430678</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5905468563331846</v>
+        <v>0.6978212390120753</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02781479283256</v>
+        <v>1.038837876182156</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6156876586078075</v>
+        <v>0.727528933845924</v>
       </c>
       <c r="P13" t="n">
-        <v>140.1068251848996</v>
+        <v>139.4391692543495</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.2092571008054</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9463308126756222</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7644871646796423</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7473462185916464</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.669200490350091</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7372903886961631</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3588861027619983</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.574875414224125</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.405910972476814</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7948292111125168</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.100369579016049</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.314241455757662</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.5990710331521616</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.028623566573001</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.624574727281447</v>
-      </c>
-      <c r="P14" t="n">
-        <v>140.0495004066673</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>224.1519323225731</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9449143091683352</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.763332792242239</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7386911306199222</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6612623643791904</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7292641321874769</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3683582682376265</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.582594708028436</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.45407286057273</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8139025598301135</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.133987871288285</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.260011224356973</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6069252575380485</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.029379035110221</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.6327633222599268</v>
-      </c>
-      <c r="P15" t="n">
-        <v>139.9973985188339</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>224.0998304347398</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9435975933071283</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7622508457289241</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7307777354450626</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6539772798427961</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7219178961894501</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3771631532644351</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.589829689344879</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.498107543306801</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8314068118801795</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.164757870803652</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.211230111426248</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.6141361032087554</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.030081283569532</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.6402811485593441</v>
-      </c>
-      <c r="P16" t="n">
-        <v>139.9501548357424</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>224.0525867516482</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_15</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9423789447283295</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7612423218223345</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7235564891713517</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6473093790483215</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7152087444113679</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3853122619222236</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.596573693352069</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.538290711413668</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8474281244082957</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.192859417910982</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.167339711045384</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.6207352591260009</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.030731229478224</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.6471612442061229</v>
-      </c>
-      <c r="P17" t="n">
-        <v>139.9074024070119</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>224.0098343229178</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.941255014714535</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7603064654905937</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7169772811586803</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.641219029123988</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7090914769311717</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.3928279870996899</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.602831768951642</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.574901209319781</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8620617253797127</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.218481834268361</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.127852334128108</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.6267599118479817</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.031330658818915</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.6534423788672288</v>
-      </c>
-      <c r="P18" t="n">
-        <v>139.8687669095724</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>223.9711988254783</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9402214694062463</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7594413593609045</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.7109914572278615</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6356642762984999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7035221695574888</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3997393093352545</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.608616737624321</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.608209776865227</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8754084193058321</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.24180909808553</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.092322476767757</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.6322494043771449</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.031881882983335</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.6591655704581745</v>
-      </c>
-      <c r="P19" t="n">
-        <v>139.8338853420043</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>223.9363172579102</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9392736776516857</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7586443248748587</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7055525204577229</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.6306080225442123</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.6984589922084317</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.4060771971621813</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.613946510902516</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.638475149665591</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.8875573435498806</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.263016416311972</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.060348762948674</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.6372418670820219</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.032387371919101</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.6643705726362206</v>
-      </c>
-      <c r="P20" t="n">
-        <v>139.8024239933226</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>223.9048559092285</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9384064729562261</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7579120943256734</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7006163634835594</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.6260106560375429</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.6938615604268492</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4118761989538299</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.61884293995653</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.665942766469742</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8986036755035112</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.282272940840891</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.031573916811698</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.6417758167411965</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.032849881090013</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.6690975419189559</v>
-      </c>
-      <c r="P21" t="n">
-        <v>139.7740649255286</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>223.8764968414345</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9376143800916618</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7572409702918611</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6961398648933387</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6218346943841924</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.6896901572250664</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4171729275864238</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.623330749460874</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.690852579618734</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.9086374760677305</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.299745027843232</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.005677501786796</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.6458892533448933</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.03327233061778</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.6733860960348598</v>
-      </c>
-      <c r="P22" t="n">
-        <v>139.7485088973869</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>223.8509408132928</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9368922280016644</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7566272271973291</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.69208415247322</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.6180462125457583</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.6859094719019154</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4220019619374412</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.627434852360037</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.713420896470638</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9177402586992509</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.315580577584945</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.9823733804908108</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.6496167808311615</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.033657478399112</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.6772723120832639</v>
-      </c>
-      <c r="P23" t="n">
-        <v>139.7254906316321</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>223.827922547538</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.936234799495133</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7560669078959008</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6884121355221501</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.61461273619227</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.6824854851944872</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4263981893877963</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.631181710108721</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.733854111021605</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9259900511620776</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.329922081091841</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.9614018589163211</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.6529917222965359</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.034008106935929</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.6807909317939114</v>
-      </c>
-      <c r="P24" t="n">
-        <v>139.7047633048316</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>223.8071952207374</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9356370577206037</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7555562233665754</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.685089767279487</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.6115030739662346</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.6793866346857198</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.430395291386422</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.634596659907806</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.752341679032388</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9334617985554214</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.342901738793905</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.9425236107266521</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.656045190048995</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.034326902549011</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.6839743919901422</v>
-      </c>
-      <c r="P25" t="n">
-        <v>139.6861024205634</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>223.7885343364693</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_12_7_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9350941533127757</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7550914468818275</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6820853361074953</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.6086882884651164</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.6765835555816286</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4340256956614127</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.637704622401414</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.769060062296668</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9402250302835231</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.354642546290096</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.9255385948199765</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6588062656513011</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.03461645156652</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.6868530122970529</v>
-      </c>
-      <c r="P26" t="n">
-        <v>139.6693030800825</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>223.7717349959883</v>
+        <v>223.5416011702553</v>
       </c>
     </row>
   </sheetData>
